--- a/df_1/df_1_8.xlsx
+++ b/df_1/df_1_8.xlsx
@@ -656,372 +656,372 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.3267 %</t>
+          <t>0,3267</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.1776 %</t>
+          <t>0,1776</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.4309 %</t>
+          <t>0,4309</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.7781 %</t>
+          <t>0,7781</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.6717 %</t>
+          <t>0,6717</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5532 %</t>
+          <t>0,5532</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9793 %</t>
+          <t>0,9793</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.6569 %</t>
+          <t>0,6569</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>0.9127 %</t>
+          <t>0,9127</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.7243 %</t>
+          <t>0,7243</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0.5688 %</t>
+          <t>0,5688</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>0.5214 %</t>
+          <t>0,5214</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>0.7171 %</t>
+          <t>0,7171</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>0.7455 %</t>
+          <t>0,7455</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.5496 %</t>
+          <t>0,5496</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>0.6054 %</t>
+          <t>0,6054</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.7087 %</t>
+          <t>0,7087</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>0.8082 %</t>
+          <t>0,8082</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.5694 %</t>
+          <t>0,5694</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>0.4807 %</t>
+          <t>0,4807</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>0.7951 %</t>
+          <t>0,7951</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>0.5695 %</t>
+          <t>0,5695</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>0.5178 %</t>
+          <t>0,5178</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>0.7176 %</t>
+          <t>0,7176</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>0.5642 %</t>
+          <t>0,5642</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>0.6498 %</t>
+          <t>0,6498</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>0.6653 %</t>
+          <t>0,6653</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>0.5945 %</t>
+          <t>0,5945</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>0.5908 %</t>
+          <t>0,5908</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0.562 %</t>
+          <t>0,562</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>0.6966 %</t>
+          <t>0,6966</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>0.7571 %</t>
+          <t>0,7571</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>0.8169 %</t>
+          <t>0,8169</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0.7364 %</t>
+          <t>0,7364</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>0.7926 %</t>
+          <t>0,7926</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>0.5903 %</t>
+          <t>0,5903</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>0.8113 %</t>
+          <t>0,8113</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>0.841 %</t>
+          <t>0,841</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>0.7426 %</t>
+          <t>0,7426</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>0.6634 %</t>
+          <t>0,6634</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>0.7379 %</t>
+          <t>0,7379</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>0.8305 %</t>
+          <t>0,8305</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>0.8631 %</t>
+          <t>0,8631</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>0.591 %</t>
+          <t>0,591</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
         <is>
-          <t>0.7884 %</t>
+          <t>0,7884</t>
         </is>
       </c>
       <c r="AU2" t="inlineStr">
         <is>
-          <t>0.6739 %</t>
+          <t>0,6739</t>
         </is>
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>0.7948 %</t>
+          <t>0,7948</t>
         </is>
       </c>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>0.8483 %</t>
+          <t>0,8483</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>0.7879 %</t>
+          <t>0,7879</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>1.0479 %</t>
+          <t>1,0479</t>
         </is>
       </c>
       <c r="AZ2" t="inlineStr">
         <is>
-          <t>0.599 %</t>
+          <t>0,599</t>
         </is>
       </c>
       <c r="BA2" t="inlineStr">
         <is>
-          <t>0.5624 %</t>
+          <t>0,5624</t>
         </is>
       </c>
       <c r="BB2" t="inlineStr">
         <is>
-          <t>0.792 %</t>
+          <t>0,792</t>
         </is>
       </c>
       <c r="BC2" t="inlineStr">
         <is>
-          <t>0.7113 %</t>
+          <t>0,7113</t>
         </is>
       </c>
       <c r="BD2" t="inlineStr">
         <is>
-          <t>0.7159 %</t>
+          <t>0,7159</t>
         </is>
       </c>
       <c r="BE2" t="inlineStr">
         <is>
-          <t>0.5871 %</t>
+          <t>0,5871</t>
         </is>
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>0.7465 %</t>
+          <t>0,7465</t>
         </is>
       </c>
       <c r="BG2" t="inlineStr">
         <is>
-          <t>0.7077 %</t>
+          <t>0,7077</t>
         </is>
       </c>
       <c r="BH2" t="inlineStr">
         <is>
-          <t>0.842 %</t>
+          <t>0,842</t>
         </is>
       </c>
       <c r="BI2" t="inlineStr">
         <is>
-          <t>0.6609 %</t>
+          <t>0,6609</t>
         </is>
       </c>
       <c r="BJ2" t="inlineStr">
         <is>
-          <t>0.888 %</t>
+          <t>0,888</t>
         </is>
       </c>
       <c r="BK2" t="inlineStr">
         <is>
-          <t>0.6487 %</t>
+          <t>0,6487</t>
         </is>
       </c>
       <c r="BL2" t="inlineStr">
         <is>
-          <t>0.6506 %</t>
+          <t>0,6506</t>
         </is>
       </c>
       <c r="BM2" t="inlineStr">
         <is>
-          <t>0.485 %</t>
+          <t>0,485</t>
         </is>
       </c>
       <c r="BN2" t="inlineStr">
         <is>
-          <t>0.5938 %</t>
+          <t>0,5938</t>
         </is>
       </c>
       <c r="BO2" t="inlineStr">
         <is>
-          <t>0.6547 %</t>
+          <t>0,6547</t>
         </is>
       </c>
       <c r="BP2" t="inlineStr">
         <is>
-          <t>0.7024 %</t>
+          <t>0,7024</t>
         </is>
       </c>
       <c r="BQ2" t="inlineStr">
         <is>
-          <t>0.5608 %</t>
+          <t>0,5608</t>
         </is>
       </c>
       <c r="BR2" t="inlineStr">
         <is>
-          <t>0.6743 %</t>
+          <t>0,6743</t>
         </is>
       </c>
       <c r="BS2" t="inlineStr">
         <is>
-          <t>0.5723 %</t>
+          <t>0,5723</t>
         </is>
       </c>
       <c r="BT2" t="inlineStr">
         <is>
-          <t>0.4631 %</t>
+          <t>0,4631</t>
         </is>
       </c>
       <c r="BU2" t="inlineStr">
         <is>
-          <t>0.5189 %</t>
+          <t>0,5189</t>
         </is>
       </c>
       <c r="BV2" t="inlineStr">
         <is>
-          <t>0.4784 %</t>
+          <t>0,4784</t>
         </is>
       </c>
       <c r="BW2" t="inlineStr">
         <is>
-          <t>0.3504 %</t>
+          <t>0,3504</t>
         </is>
       </c>
     </row>
@@ -1033,227 +1033,227 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.4803 %</t>
+          <t>0,4803</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.5046 %</t>
+          <t>0,5046</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.229 %</t>
+          <t>0,229</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.2858 %</t>
+          <t>0,2858</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.2906 %</t>
+          <t>0,2906</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.502 %</t>
+          <t>0,502</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.6529 %</t>
+          <t>0,6529</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.5504 %</t>
+          <t>0,5504</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>0.5889 %</t>
+          <t>0,5889</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.6455 %</t>
+          <t>0,6455</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0.952 %</t>
+          <t>0,952</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>0.7889 %</t>
+          <t>0,7889</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>0.9272 %</t>
+          <t>0,9272</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1.0229 %</t>
+          <t>1,0229</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>0.9299 %</t>
+          <t>0,9299</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.9184 %</t>
+          <t>0,9184</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0.9059 %</t>
+          <t>0,9059</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>0.8737 %</t>
+          <t>0,8737</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>1.095 %</t>
+          <t>1,095</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>0.9614 %</t>
+          <t>0,9614</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0.9142 %</t>
+          <t>0,9142</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1.0624 %</t>
+          <t>1,0624</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0.9347 %</t>
+          <t>0,9347</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>1.4416 %</t>
+          <t>1,4416</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>1.3086 %</t>
+          <t>1,3086</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>1.4468 %</t>
+          <t>1,4468</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>1.1046 %</t>
+          <t>1,1046</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>1.1499 %</t>
+          <t>1,1499</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>0.9166 %</t>
+          <t>0,9166</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>0.855 %</t>
+          <t>0,855</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>0.677 %</t>
+          <t>0,677</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>0.6346 %</t>
+          <t>0,6346</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>0.64 %</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0.4937 %</t>
+          <t>0,4937</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>0.5398 %</t>
+          <t>0,5398</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>0.4368 %</t>
+          <t>0,4368</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>0.3068 %</t>
+          <t>0,3068</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>0.4008 %</t>
+          <t>0,4008</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>0.2634 %</t>
+          <t>0,2634</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>0.2888 %</t>
+          <t>0,2888</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>0.2526 %</t>
+          <t>0,2526</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>0.1677 %</t>
+          <t>0,1677</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>0.0842 %</t>
+          <t>0,0842</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>0.2256 %</t>
+          <t>0,2256</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
         <is>
-          <t>0.3749 %</t>
+          <t>0,3749</t>
         </is>
       </c>
     </row>
@@ -1265,262 +1265,262 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2.455 %</t>
+          <t>2,455</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3.0194 %</t>
+          <t>3,0194</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.8805 %</t>
+          <t>2,8805</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.9442 %</t>
+          <t>2,9442</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.9929 %</t>
+          <t>2,9929</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.6071 %</t>
+          <t>3,6071</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>3.9197 %</t>
+          <t>3,9197</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>3.7227 %</t>
+          <t>3,7227</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>4.0571 %</t>
+          <t>4,0571</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>3.9882 %</t>
+          <t>3,9882</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>4.3746 %</t>
+          <t>4,3746</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2.9046 %</t>
+          <t>2,9046</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>2.2429 %</t>
+          <t>2,2429</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1.8468 %</t>
+          <t>1,8468</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.8039 %</t>
+          <t>1,8039</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.1302 %</t>
+          <t>2,1302</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>1.9144 %</t>
+          <t>1,9144</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1.4395 %</t>
+          <t>1,4395</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>1.3145 %</t>
+          <t>1,3145</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1.2965 %</t>
+          <t>1,2965</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1.0865 %</t>
+          <t>1,0865</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0.8286 %</t>
+          <t>0,8286</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0.7876 %</t>
+          <t>0,7876</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0.4621 %</t>
+          <t>0,4621</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0.1084 %</t>
+          <t>0,1084</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>0.0925 %</t>
+          <t>0,0925</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0.1087 %</t>
+          <t>0,1087</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0.1082 %</t>
+          <t>0,1082</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0.1058 %</t>
+          <t>0,1058</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0.1236 %</t>
+          <t>0,1236</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0.152 %</t>
+          <t>0,152</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0.1529 %</t>
+          <t>0,1529</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0.2022 %</t>
+          <t>0,2022</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0.2111 %</t>
+          <t>0,2111</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>0.2594 %</t>
+          <t>0,2594</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0.2862 %</t>
+          <t>0,2862</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>0.3813 %</t>
+          <t>0,3813</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>0.4335 %</t>
+          <t>0,4335</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>0.4077 %</t>
+          <t>0,4077</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>0.5039 %</t>
+          <t>0,5039</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>0.5879 %</t>
+          <t>0,5879</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>0.6366 %</t>
+          <t>0,6366</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>0.6582 %</t>
+          <t>0,6582</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>0.5073 %</t>
+          <t>0,5073</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>0.5111 %</t>
+          <t>0,5111</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
         <is>
-          <t>0.4781 %</t>
+          <t>0,4781</t>
         </is>
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>0.4307 %</t>
+          <t>0,4307</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>0.3398 %</t>
+          <t>0,3398</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>0.2384 %</t>
+          <t>0,2384</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>0.3114 %</t>
+          <t>0,3114</t>
         </is>
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>1.1057 %</t>
+          <t>1,1057</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>2.3979 %</t>
+          <t>2,3979</t>
         </is>
       </c>
     </row>
